--- a/data/trans_bre/P25A_10_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25A_10_R2-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,52</t>
+          <t>6,18</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,51</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>13,11</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>33,36%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>452,57%</t>
+          <t>-11,95%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>96,32%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>370,7%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,35; 10,82</t>
+          <t>1,81; 15,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 6,77</t>
+          <t>-9,9; 7,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,01; 8,18</t>
+          <t>-3,39; 10,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,45; 27,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-82,61; 664,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-43,18; —</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,82</t>
+          <t>2,16</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,15</t>
+          <t>1,58</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,55</t>
+          <t>3,25</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>154,56%</t>
+          <t>3,86</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>385,41%</t>
+          <t>145,54%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>393,72%</t>
+          <t>220,02%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>388,04%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>189,5%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 4,07</t>
+          <t>-1,03; 5,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,48; 4,22</t>
+          <t>-0,88; 4,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,13; 9,07</t>
+          <t>0,49; 6,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-43,0; 999,01</t>
+          <t>-1,04; 8,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-43,31; —</t>
+          <t>-69,46; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-26,08; 2655,14</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-36,13; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-55,55; 1210,43</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,45</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>192,89%</t>
+          <t>3,68</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>120,37%</t>
+          <t>95,08%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>11,88%</t>
+          <t>10,71%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>70,44%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>603,29%</t>
         </is>
       </c>
     </row>
@@ -802,30 +868,40 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 5,36</t>
+          <t>-1,62; 4,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 3,07</t>
+          <t>-2,95; 2,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 1,74</t>
+          <t>-1,48; 2,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-49,9; 956,46</t>
+          <t>0,65; 7,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-97,2; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -834,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,7</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,71</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,42</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>268,85%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>146,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>288,33%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,160 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,91; 4,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,27; 3,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,82; 4,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>28,8; 883,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,68; 526,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,93; 1153,14</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2,36</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,73</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,9</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>5,56</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>192,18%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>48,08%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>211,92%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>306,93%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0,54; 4,83</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-1,23; 2,66</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0,22; 3,93</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2,69; 9,69</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-11,31; 1130,02</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-63,06; 489,82</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-12,27; 1239,24</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>62,42; 1168,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P25A_10_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25A_10_R2-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,179 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>6,18</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,55</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,62</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>13,11</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-11,95%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>96,32%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>370,7%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>5.622554414722758</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.418359523367997</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>3.815522861769542</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>14.08686808391698</v>
+      </c>
+      <c r="G4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.08624778798949383</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>2.357037815477715</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>4.099225117998465</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>1,81; 15,71</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-9,9; 7,68</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-3,39; 10,86</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0,45; 27,34</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-43,18; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>1.571561988896965</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-8.265689543291826</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-3.083759859786946</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>1.620004862212625</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="n">
+        <v>-0.4035482632604735</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>14.13635700479814</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>12.61596720668148</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>20.12345503205616</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>29.42850338064574</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>2,16</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,58</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>3,25</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>3,86</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>145,54%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>220,02%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>388,04%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>189,5%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-1,03; 5,91</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-0,88; 4,75</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,49; 6,45</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-1,04; 8,48</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-69,46; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-36,13; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-55,55; 1210,43</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>2.302293004097439</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1.55350534840935</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>3.10362192790963</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>4.035460021449236</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>1.862501018428565</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>2.450295417640957</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>3.425990465731164</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>2.099823834857158</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,31</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,15</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,46</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>3,68</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>95,08%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>10,71%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>70,44%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>603,29%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.6577158103964876</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.7048585842938391</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.2323589478074771</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.7398477132231762</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.6418500006447428</v>
+      </c>
+      <c r="H8" s="6" t="inlineStr"/>
+      <c r="I8" s="6" t="n">
+        <v>-0.4502187654616646</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.5489104146245839</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-1,62; 4,29</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-2,95; 2,27</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-1,48; 2,3</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>0,65; 7,92</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>5.812381469733507</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>4.51032708549667</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>6.218910628472117</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>8.794917720711394</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="inlineStr"/>
+      <c r="I9" s="6" t="inlineStr"/>
+      <c r="J9" s="6" t="n">
+        <v>13.17662151345709</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +807,195 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>1.426329968426238</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.3396368205854272</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.6690799992625116</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>3.518407915785469</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>1.187097879469185</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.2725986167919448</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>1.136448822365992</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>6.163938612759566</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-1.239061449785595</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-2.52537317376509</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-1.162181608850469</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.7398183677451587</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>4.325976286694951</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>2.491692661311976</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>3.113256466698337</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>7.629865343478894</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>2,36</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,73</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1,9</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>5,56</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>192,18%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>48,08%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>211,92%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>306,93%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>0,54; 4,83</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-1,23; 2,66</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0,22; 3,93</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>2,69; 9,69</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-11,31; 1130,02</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-63,06; 489,82</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-12,27; 1239,24</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>62,42; 1168,08</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>2.395775877221661</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.9699384230355497</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>2.276824166455219</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>5.811238154545277</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>2.281621269971418</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.6863512562546392</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>2.54399490925585</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>3.377587085975982</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.6933581338279025</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-1.001707504575074</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.4596899754382569</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>3.003500540483118</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.01365430804054944</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.6037699876244661</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.001892668247285123</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.7551183985836541</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>4.664091412974957</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>3.021551815394592</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>5.1351910645492</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>10.32415724074929</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>12.41694759078599</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>6.217951538509574</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>15.28100383895416</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>12.99852289501666</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
